--- a/biology/Botanique/Spathelia/Spathelia.xlsx
+++ b/biology/Botanique/Spathelia/Spathelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spathelia est un genre de plantes de la famille des Rutaceae[1]. Les espèces sont originaires des Antilles et du Belize.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathelia est un genre de plantes de la famille des Rutaceae. Les espèces sont originaires des Antilles et du Belize.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spathelia sont des arbres ressemblant à des palmiers[2]. Les individus de ce genre sont des arbres à tronc mince et non ramifié, possédant une couronne distale de feuilles composées et disposée en spirale[3].
-Ces arbres sont monocarpiques[4] c'est-à-dire qu'ils produisent une inflorescence distale volumineuse une seule fois dans leur vie et meurent après la fructification. Ils vivent entre 6 et 8 ans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spathelia sont des arbres ressemblant à des palmiers. Les individus de ce genre sont des arbres à tronc mince et non ramifié, possédant une couronne distale de feuilles composées et disposée en spirale.
+Ces arbres sont monocarpiques c'est-à-dire qu'ils produisent une inflorescence distale volumineuse une seule fois dans leur vie et meurent après la fructification. Ils vivent entre 6 et 8 ans.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Spathelia est endémique des Antilles[5] et du Belize.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Spathelia est endémique des Antilles et du Belize.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Spathelia bahamensis
 Spathelia belizensis
@@ -626,9 +644,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (16 septembre 2019)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (16 septembre 2019) :
 Spathelia bahamensis Marie-Vict.
 Spathelia belizensis Acev.-Rodr. &amp; S. W. Brewer
 Spathelia brittonii P Wilson
@@ -640,11 +660,11 @@
 Spathelia subintegra Marie-Vict.
 Spathelia vernicosa Planchon
 Spathelia wrightii Marie-Vict.
-Selon The Plant List            (16 septembre 2019)[7] :
+Selon The Plant List            (16 septembre 2019) :
 Spathelia excelsa (Krause) R.S. Cowan &amp; Brizicky
 Spathelia terminalioides A.H. Gentry
 Spathelia ulei (Engl. ex Harms) R.S.Cowan &amp; Brizicky
-Selon Tropicos                                           (16 septembre 2019)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 septembre 2019) (Attention liste brute contenant possiblement des synonymes) :
 Spathelia bahamensis Vict.
 Spathelia belizensis Acev.-Rodr. &amp; S.W. Brewer
 Spathelia brittonii P. Wilson
